--- a/GatorBio Assay Form.xlsx
+++ b/GatorBio Assay Form.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david.nedrud/Documents/GitHub/GatorBio-Import-Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2E6B9D-54CA-BF4A-B16C-A259CE393850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6933AD-BAB5-404C-817F-FB3933CCF6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33500" yWindow="2840" windowWidth="29700" windowHeight="30180" xr2:uid="{64341BE8-5843-324A-B35B-97C6258E442A}"/>
+    <workbookView xWindow="420" yWindow="720" windowWidth="34560" windowHeight="21660" activeTab="1" xr2:uid="{64341BE8-5843-324A-B35B-97C6258E442A}"/>
   </bookViews>
   <sheets>
     <sheet name="PreExperiment" sheetId="2" r:id="rId1"/>
@@ -718,19 +718,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -746,6 +753,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
+<FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
+  <bag type="Checkbox"/>
+  <bag type="XFControls">
+    <bagId k="CellControl">0</bagId>
+  </bag>
+  <bag type="XFComplement">
+    <bagId k="XFControls">1</bagId>
+  </bag>
+  <bag type="XFComplements" extRef="XFComplementsMapperExtRef">
+    <a k="MappedFeaturePropertyBags">
+      <bagId>2</bagId>
+    </a>
+  </bag>
+</FeaturePropertyBags>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1065,10 +1089,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC776949-1396-3847-BCFA-2B1897D558E4}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1077,8 +1102,8 @@
     <col min="2" max="2" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1115,7 +1140,7 @@
       <c r="A7" t="s">
         <v>178</v>
       </c>
-      <c r="B7" t="b">
+      <c r="B7" s="12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1123,7 +1148,7 @@
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="b">
+      <c r="B8" s="12" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1131,7 +1156,7 @@
       <c r="A9" t="s">
         <v>179</v>
       </c>
-      <c r="B9" t="b">
+      <c r="B9" s="12" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1174,10 +1199,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8458FF-8196-7E49-A478-E47B80914CB8}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:AB110"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="T52" sqref="T52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1305,7 +1331,7 @@
       <c r="M4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P4" t="s">
@@ -1347,34 +1373,34 @@
       <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="E5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="6" t="s">
+      <c r="J5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="11" t="s">
         <v>12</v>
       </c>
       <c r="N5" s="6" t="s">
@@ -1386,31 +1412,28 @@
       <c r="Q5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="W5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="X5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="7"/>
+      <c r="R5" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" t="s">
+        <v>14</v>
+      </c>
+      <c r="T5" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" t="s">
+        <v>14</v>
+      </c>
+      <c r="V5" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" t="s">
+        <v>14</v>
+      </c>
+      <c r="X5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB5" s="6"/>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
@@ -1419,34 +1442,34 @@
       <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="E6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="6" t="s">
+      <c r="J6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="11" t="s">
         <v>12</v>
       </c>
       <c r="N6" s="6" t="s">
@@ -1458,31 +1481,28 @@
       <c r="Q6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="U6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="V6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="W6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="X6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="7"/>
+      <c r="R6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" t="s">
+        <v>14</v>
+      </c>
+      <c r="T6" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" t="s">
+        <v>14</v>
+      </c>
+      <c r="V6" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" t="s">
+        <v>12</v>
+      </c>
+      <c r="X6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB6" s="6"/>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
@@ -1491,34 +1511,34 @@
       <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="E7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="6" t="s">
+      <c r="J7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="11" t="s">
         <v>12</v>
       </c>
       <c r="N7" s="6" t="s">
@@ -1530,31 +1550,28 @@
       <c r="Q7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="W7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="X7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="7"/>
+      <c r="R7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" t="s">
+        <v>14</v>
+      </c>
+      <c r="T7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U7" t="s">
+        <v>14</v>
+      </c>
+      <c r="V7" t="s">
+        <v>12</v>
+      </c>
+      <c r="W7" t="s">
+        <v>12</v>
+      </c>
+      <c r="X7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB7" s="6"/>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
@@ -1563,34 +1580,34 @@
       <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="E8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="6" t="s">
+      <c r="J8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="11" t="s">
         <v>12</v>
       </c>
       <c r="N8" s="6" t="s">
@@ -1602,31 +1619,28 @@
       <c r="Q8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="T8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="U8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="V8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="W8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="X8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="7"/>
+      <c r="R8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T8" t="s">
+        <v>12</v>
+      </c>
+      <c r="U8" t="s">
+        <v>14</v>
+      </c>
+      <c r="V8" t="s">
+        <v>12</v>
+      </c>
+      <c r="W8" t="s">
+        <v>12</v>
+      </c>
+      <c r="X8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB8" s="6"/>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
@@ -1635,34 +1649,34 @@
       <c r="C9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="6" t="s">
+      <c r="E9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" s="6" t="s">
+      <c r="J9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="11" t="s">
         <v>12</v>
       </c>
       <c r="N9" s="6" t="s">
@@ -1674,31 +1688,28 @@
       <c r="Q9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="T9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="U9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="V9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="W9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="X9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="7"/>
+      <c r="R9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S9" t="s">
+        <v>14</v>
+      </c>
+      <c r="T9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U9" t="s">
+        <v>14</v>
+      </c>
+      <c r="V9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W9" t="s">
+        <v>12</v>
+      </c>
+      <c r="X9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB9" s="6"/>
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
@@ -1707,34 +1718,34 @@
       <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="E10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" s="6" t="s">
+      <c r="J10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="11" t="s">
         <v>12</v>
       </c>
       <c r="N10" s="6" t="s">
@@ -1746,67 +1757,64 @@
       <c r="Q10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="T10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="U10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="V10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="W10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="X10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="7"/>
+      <c r="R10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S10" t="s">
+        <v>14</v>
+      </c>
+      <c r="T10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U10" t="s">
+        <v>14</v>
+      </c>
+      <c r="V10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB10" s="6"/>
     </row>
     <row r="11" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="9" t="s">
+      <c r="E11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="9" t="s">
+      <c r="J11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="8" t="s">
         <v>12</v>
       </c>
       <c r="N11" s="9" t="s">
@@ -1815,44 +1823,44 @@
       <c r="P11" t="s">
         <v>7</v>
       </c>
-      <c r="Q11" s="8" t="s">
+      <c r="Q11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="S11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="T11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="U11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="V11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="W11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="X11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="10"/>
+      <c r="R11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="W11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="X11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="9"/>
     </row>
     <row r="14" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" t="s">
         <v>112</v>
-      </c>
-      <c r="D14" t="s">
-        <v>124</v>
       </c>
       <c r="E14" t="s">
         <v>121</v>
@@ -1893,14 +1901,14 @@
         <v>10</v>
       </c>
       <c r="D15" t="str">
-        <f>C4</f>
+        <f t="shared" ref="D15:D22" si="0">C4</f>
         <v>Buffer</v>
       </c>
       <c r="P15" t="s">
         <v>10</v>
       </c>
       <c r="R15" t="str">
-        <f>Q4</f>
+        <f t="shared" ref="R15:R22" si="1">Q4</f>
         <v>Probe</v>
       </c>
     </row>
@@ -1909,14 +1917,14 @@
         <v>11</v>
       </c>
       <c r="D16" t="str">
-        <f>C5</f>
+        <f t="shared" si="0"/>
         <v>Buffer</v>
       </c>
       <c r="P16" t="s">
         <v>11</v>
       </c>
       <c r="R16" t="str">
-        <f>Q5</f>
+        <f t="shared" si="1"/>
         <v>Probe</v>
       </c>
     </row>
@@ -1925,14 +1933,14 @@
         <v>23</v>
       </c>
       <c r="D17" t="str">
-        <f>C6</f>
+        <f t="shared" si="0"/>
         <v>Buffer</v>
       </c>
       <c r="P17" t="s">
         <v>23</v>
       </c>
       <c r="R17" t="str">
-        <f>Q6</f>
+        <f t="shared" si="1"/>
         <v>Probe</v>
       </c>
     </row>
@@ -1941,14 +1949,14 @@
         <v>24</v>
       </c>
       <c r="D18" t="str">
-        <f>C7</f>
+        <f t="shared" si="0"/>
         <v>Buffer</v>
       </c>
       <c r="P18" t="s">
         <v>24</v>
       </c>
       <c r="R18" t="str">
-        <f>Q7</f>
+        <f t="shared" si="1"/>
         <v>Probe</v>
       </c>
     </row>
@@ -1957,14 +1965,14 @@
         <v>25</v>
       </c>
       <c r="D19" t="str">
-        <f>C8</f>
+        <f t="shared" si="0"/>
         <v>Buffer</v>
       </c>
       <c r="P19" t="s">
         <v>25</v>
       </c>
       <c r="R19" t="str">
-        <f>Q8</f>
+        <f t="shared" si="1"/>
         <v>Probe</v>
       </c>
     </row>
@@ -1973,14 +1981,14 @@
         <v>26</v>
       </c>
       <c r="D20" t="str">
-        <f>C9</f>
+        <f t="shared" si="0"/>
         <v>Buffer</v>
       </c>
       <c r="P20" t="s">
         <v>26</v>
       </c>
       <c r="R20" t="str">
-        <f>Q9</f>
+        <f t="shared" si="1"/>
         <v>Probe</v>
       </c>
     </row>
@@ -1989,14 +1997,14 @@
         <v>27</v>
       </c>
       <c r="D21" t="str">
-        <f>C10</f>
+        <f t="shared" si="0"/>
         <v>Buffer</v>
       </c>
       <c r="P21" t="s">
         <v>27</v>
       </c>
       <c r="R21" t="str">
-        <f>Q10</f>
+        <f t="shared" si="1"/>
         <v>Probe</v>
       </c>
     </row>
@@ -2005,14 +2013,14 @@
         <v>28</v>
       </c>
       <c r="D22" t="str">
-        <f>C11</f>
+        <f t="shared" si="0"/>
         <v>Buffer</v>
       </c>
       <c r="P22" t="s">
         <v>28</v>
       </c>
       <c r="R22" t="str">
-        <f>Q11</f>
+        <f t="shared" si="1"/>
         <v>Probe</v>
       </c>
     </row>
@@ -2024,7 +2032,7 @@
         <v>141</v>
       </c>
       <c r="D23" t="str">
-        <f>D4</f>
+        <f t="shared" ref="D23:D30" si="2">D4</f>
         <v>Load</v>
       </c>
       <c r="E23" t="s">
@@ -2040,7 +2048,7 @@
         <v>18</v>
       </c>
       <c r="R23" t="str">
-        <f>R4</f>
+        <f t="shared" ref="R23:R30" si="3">R4</f>
         <v>Buffer</v>
       </c>
     </row>
@@ -2052,7 +2060,7 @@
         <v>141</v>
       </c>
       <c r="D24" t="str">
-        <f>D5</f>
+        <f t="shared" si="2"/>
         <v>Load</v>
       </c>
       <c r="E24" t="s">
@@ -2068,7 +2076,7 @@
         <v>19</v>
       </c>
       <c r="R24" t="str">
-        <f>R5</f>
+        <f t="shared" si="3"/>
         <v>Buffer</v>
       </c>
     </row>
@@ -2080,7 +2088,7 @@
         <v>141</v>
       </c>
       <c r="D25" t="str">
-        <f>D6</f>
+        <f t="shared" si="2"/>
         <v>Load</v>
       </c>
       <c r="E25" t="s">
@@ -2096,7 +2104,7 @@
         <v>29</v>
       </c>
       <c r="R25" t="str">
-        <f>R6</f>
+        <f t="shared" si="3"/>
         <v>Buffer</v>
       </c>
     </row>
@@ -2108,7 +2116,7 @@
         <v>141</v>
       </c>
       <c r="D26" t="str">
-        <f>D7</f>
+        <f t="shared" si="2"/>
         <v>Load</v>
       </c>
       <c r="E26" t="s">
@@ -2124,7 +2132,7 @@
         <v>30</v>
       </c>
       <c r="R26" t="str">
-        <f>R7</f>
+        <f t="shared" si="3"/>
         <v>Buffer</v>
       </c>
     </row>
@@ -2136,7 +2144,7 @@
         <v>141</v>
       </c>
       <c r="D27" t="str">
-        <f>D8</f>
+        <f t="shared" si="2"/>
         <v>Load</v>
       </c>
       <c r="E27" t="s">
@@ -2152,7 +2160,7 @@
         <v>31</v>
       </c>
       <c r="R27" t="str">
-        <f>R8</f>
+        <f t="shared" si="3"/>
         <v>Buffer</v>
       </c>
     </row>
@@ -2164,7 +2172,7 @@
         <v>141</v>
       </c>
       <c r="D28" t="str">
-        <f>D9</f>
+        <f t="shared" si="2"/>
         <v>Load</v>
       </c>
       <c r="E28" t="s">
@@ -2180,7 +2188,7 @@
         <v>32</v>
       </c>
       <c r="R28" t="str">
-        <f>R9</f>
+        <f t="shared" si="3"/>
         <v>Buffer</v>
       </c>
     </row>
@@ -2192,7 +2200,7 @@
         <v>141</v>
       </c>
       <c r="D29" t="str">
-        <f>D10</f>
+        <f t="shared" si="2"/>
         <v>Load</v>
       </c>
       <c r="E29" t="s">
@@ -2208,7 +2216,7 @@
         <v>33</v>
       </c>
       <c r="R29" t="str">
-        <f>R10</f>
+        <f t="shared" si="3"/>
         <v>Buffer</v>
       </c>
     </row>
@@ -2220,7 +2228,7 @@
         <v>141</v>
       </c>
       <c r="D30" t="str">
-        <f>D11</f>
+        <f t="shared" si="2"/>
         <v>Load</v>
       </c>
       <c r="E30" t="s">
@@ -2236,7 +2244,7 @@
         <v>34</v>
       </c>
       <c r="R30" t="str">
-        <f>R11</f>
+        <f t="shared" si="3"/>
         <v>Buffer</v>
       </c>
     </row>
@@ -2245,14 +2253,14 @@
         <v>20</v>
       </c>
       <c r="D31" t="str">
-        <f>E4</f>
+        <f t="shared" ref="D31:D38" si="4">E4</f>
         <v>Buffer</v>
       </c>
       <c r="P31" t="s">
         <v>20</v>
       </c>
       <c r="R31" t="str">
-        <f>S4</f>
+        <f t="shared" ref="R31:R38" si="5">S4</f>
         <v>Sample</v>
       </c>
       <c r="S31" t="s">
@@ -2273,14 +2281,14 @@
         <v>21</v>
       </c>
       <c r="D32" t="str">
-        <f>E5</f>
+        <f t="shared" si="4"/>
         <v>Buffer</v>
       </c>
       <c r="P32" t="s">
         <v>21</v>
       </c>
       <c r="R32" t="str">
-        <f>S5</f>
+        <f t="shared" si="5"/>
         <v>Sample</v>
       </c>
       <c r="S32" t="s">
@@ -2301,14 +2309,14 @@
         <v>35</v>
       </c>
       <c r="D33" t="str">
-        <f>E6</f>
+        <f t="shared" si="4"/>
         <v>Buffer</v>
       </c>
       <c r="P33" t="s">
         <v>35</v>
       </c>
       <c r="R33" t="str">
-        <f>S6</f>
+        <f t="shared" si="5"/>
         <v>Sample</v>
       </c>
       <c r="S33" t="s">
@@ -2329,14 +2337,14 @@
         <v>36</v>
       </c>
       <c r="D34" t="str">
-        <f>E7</f>
+        <f t="shared" si="4"/>
         <v>Buffer</v>
       </c>
       <c r="P34" t="s">
         <v>36</v>
       </c>
       <c r="R34" t="str">
-        <f>S7</f>
+        <f t="shared" si="5"/>
         <v>Sample</v>
       </c>
       <c r="S34" t="s">
@@ -2357,14 +2365,14 @@
         <v>37</v>
       </c>
       <c r="D35" t="str">
-        <f>E8</f>
+        <f t="shared" si="4"/>
         <v>Buffer</v>
       </c>
       <c r="P35" t="s">
         <v>37</v>
       </c>
       <c r="R35" t="str">
-        <f>S8</f>
+        <f t="shared" si="5"/>
         <v>Sample</v>
       </c>
       <c r="S35" t="s">
@@ -2385,14 +2393,14 @@
         <v>38</v>
       </c>
       <c r="D36" t="str">
-        <f>E9</f>
+        <f t="shared" si="4"/>
         <v>Buffer</v>
       </c>
       <c r="P36" t="s">
         <v>38</v>
       </c>
       <c r="R36" t="str">
-        <f>S9</f>
+        <f t="shared" si="5"/>
         <v>Sample</v>
       </c>
       <c r="S36" t="s">
@@ -2413,14 +2421,14 @@
         <v>39</v>
       </c>
       <c r="D37" t="str">
-        <f>E10</f>
+        <f t="shared" si="4"/>
         <v>Buffer</v>
       </c>
       <c r="P37" t="s">
         <v>39</v>
       </c>
       <c r="R37" t="str">
-        <f>S10</f>
+        <f t="shared" si="5"/>
         <v>Sample</v>
       </c>
       <c r="S37" t="s">
@@ -2441,14 +2449,14 @@
         <v>40</v>
       </c>
       <c r="D38" t="str">
-        <f>E11</f>
+        <f t="shared" si="4"/>
         <v>Buffer</v>
       </c>
       <c r="P38" t="s">
         <v>40</v>
       </c>
       <c r="R38" t="str">
-        <f>S11</f>
+        <f t="shared" si="5"/>
         <v>Sample</v>
       </c>
     </row>
@@ -2460,7 +2468,7 @@
         <v>145</v>
       </c>
       <c r="D39" t="str">
-        <f>F4</f>
+        <f t="shared" ref="D39:D46" si="6">F4</f>
         <v>Sample</v>
       </c>
       <c r="E39" t="s">
@@ -2476,7 +2484,7 @@
         <v>22</v>
       </c>
       <c r="R39" t="str">
-        <f>T4</f>
+        <f t="shared" ref="R39:R46" si="7">T4</f>
         <v>Buffer</v>
       </c>
     </row>
@@ -2488,7 +2496,7 @@
         <v>145</v>
       </c>
       <c r="D40" t="str">
-        <f>F5</f>
+        <f t="shared" si="6"/>
         <v>Sample</v>
       </c>
       <c r="E40" t="s">
@@ -2504,7 +2512,7 @@
         <v>41</v>
       </c>
       <c r="R40" t="str">
-        <f>T5</f>
+        <f t="shared" si="7"/>
         <v>Buffer</v>
       </c>
     </row>
@@ -2516,7 +2524,7 @@
         <v>145</v>
       </c>
       <c r="D41" t="str">
-        <f>F6</f>
+        <f t="shared" si="6"/>
         <v>Sample</v>
       </c>
       <c r="E41" t="s">
@@ -2532,7 +2540,7 @@
         <v>42</v>
       </c>
       <c r="R41" t="str">
-        <f>T6</f>
+        <f t="shared" si="7"/>
         <v>Buffer</v>
       </c>
     </row>
@@ -2544,7 +2552,7 @@
         <v>145</v>
       </c>
       <c r="D42" t="str">
-        <f>F7</f>
+        <f t="shared" si="6"/>
         <v>Sample</v>
       </c>
       <c r="E42" t="s">
@@ -2560,7 +2568,7 @@
         <v>43</v>
       </c>
       <c r="R42" t="str">
-        <f>T7</f>
+        <f t="shared" si="7"/>
         <v>Buffer</v>
       </c>
     </row>
@@ -2572,7 +2580,7 @@
         <v>142</v>
       </c>
       <c r="D43" t="str">
-        <f>F8</f>
+        <f t="shared" si="6"/>
         <v>Sample</v>
       </c>
       <c r="E43" t="s">
@@ -2588,7 +2596,7 @@
         <v>44</v>
       </c>
       <c r="R43" t="str">
-        <f>T8</f>
+        <f t="shared" si="7"/>
         <v>Buffer</v>
       </c>
     </row>
@@ -2600,7 +2608,7 @@
         <v>142</v>
       </c>
       <c r="D44" t="str">
-        <f>F9</f>
+        <f t="shared" si="6"/>
         <v>Sample</v>
       </c>
       <c r="E44" t="s">
@@ -2616,7 +2624,7 @@
         <v>45</v>
       </c>
       <c r="R44" t="str">
-        <f>T9</f>
+        <f t="shared" si="7"/>
         <v>Buffer</v>
       </c>
     </row>
@@ -2628,7 +2636,7 @@
         <v>142</v>
       </c>
       <c r="D45" t="str">
-        <f>F10</f>
+        <f t="shared" si="6"/>
         <v>Sample</v>
       </c>
       <c r="E45" t="s">
@@ -2644,7 +2652,7 @@
         <v>46</v>
       </c>
       <c r="R45" t="str">
-        <f>T10</f>
+        <f t="shared" si="7"/>
         <v>Buffer</v>
       </c>
     </row>
@@ -2653,14 +2661,14 @@
         <v>47</v>
       </c>
       <c r="D46" t="str">
-        <f>F11</f>
+        <f t="shared" si="6"/>
         <v>Sample</v>
       </c>
       <c r="P46" t="s">
         <v>47</v>
       </c>
       <c r="R46" t="str">
-        <f>T11</f>
+        <f t="shared" si="7"/>
         <v>Buffer</v>
       </c>
     </row>
@@ -2669,14 +2677,14 @@
         <v>48</v>
       </c>
       <c r="D47" t="str">
-        <f>G4</f>
+        <f t="shared" ref="D47:D54" si="8">G4</f>
         <v>Buffer</v>
       </c>
       <c r="P47" t="s">
         <v>48</v>
       </c>
       <c r="R47" t="str">
-        <f>U4</f>
+        <f t="shared" ref="R47:R54" si="9">U4</f>
         <v>Sample</v>
       </c>
       <c r="S47" t="s">
@@ -2697,14 +2705,14 @@
         <v>49</v>
       </c>
       <c r="D48" t="str">
-        <f>G5</f>
+        <f t="shared" si="8"/>
         <v>Buffer</v>
       </c>
       <c r="P48" t="s">
         <v>49</v>
       </c>
       <c r="R48" t="str">
-        <f>U5</f>
+        <f t="shared" si="9"/>
         <v>Sample</v>
       </c>
       <c r="S48" t="s">
@@ -2725,14 +2733,14 @@
         <v>50</v>
       </c>
       <c r="D49" t="str">
-        <f>G6</f>
+        <f t="shared" si="8"/>
         <v>Buffer</v>
       </c>
       <c r="P49" t="s">
         <v>50</v>
       </c>
       <c r="R49" t="str">
-        <f>U6</f>
+        <f t="shared" si="9"/>
         <v>Sample</v>
       </c>
       <c r="S49" t="s">
@@ -2753,14 +2761,14 @@
         <v>51</v>
       </c>
       <c r="D50" t="str">
-        <f>G7</f>
+        <f t="shared" si="8"/>
         <v>Buffer</v>
       </c>
       <c r="P50" t="s">
         <v>51</v>
       </c>
       <c r="R50" t="str">
-        <f>U7</f>
+        <f t="shared" si="9"/>
         <v>Sample</v>
       </c>
       <c r="S50" t="s">
@@ -2781,14 +2789,14 @@
         <v>52</v>
       </c>
       <c r="D51" t="str">
-        <f>G8</f>
+        <f t="shared" si="8"/>
         <v>Buffer</v>
       </c>
       <c r="P51" t="s">
         <v>52</v>
       </c>
       <c r="R51" t="str">
-        <f>U8</f>
+        <f t="shared" si="9"/>
         <v>Sample</v>
       </c>
       <c r="S51" t="s">
@@ -2809,14 +2817,14 @@
         <v>53</v>
       </c>
       <c r="D52" t="str">
-        <f>G9</f>
+        <f t="shared" si="8"/>
         <v>Buffer</v>
       </c>
       <c r="P52" t="s">
         <v>53</v>
       </c>
       <c r="R52" t="str">
-        <f>U9</f>
+        <f t="shared" si="9"/>
         <v>Sample</v>
       </c>
       <c r="S52" t="s">
@@ -2837,14 +2845,14 @@
         <v>54</v>
       </c>
       <c r="D53" t="str">
-        <f>G10</f>
+        <f t="shared" si="8"/>
         <v>Buffer</v>
       </c>
       <c r="P53" t="s">
         <v>54</v>
       </c>
       <c r="R53" t="str">
-        <f>U10</f>
+        <f t="shared" si="9"/>
         <v>Sample</v>
       </c>
       <c r="S53" t="s">
@@ -2865,14 +2873,14 @@
         <v>55</v>
       </c>
       <c r="D54" t="str">
-        <f>G11</f>
+        <f t="shared" si="8"/>
         <v>Buffer</v>
       </c>
       <c r="P54" t="s">
         <v>55</v>
       </c>
       <c r="R54" t="str">
-        <f>U11</f>
+        <f t="shared" si="9"/>
         <v>Sample</v>
       </c>
     </row>
@@ -2881,14 +2889,14 @@
         <v>56</v>
       </c>
       <c r="D55" t="str">
-        <f>H4</f>
+        <f t="shared" ref="D55:D62" si="10">H4</f>
         <v>Regeneration</v>
       </c>
       <c r="P55" t="s">
         <v>56</v>
       </c>
       <c r="R55" t="str">
-        <f>V4</f>
+        <f t="shared" ref="R55:R62" si="11">V4</f>
         <v>Buffer</v>
       </c>
     </row>
@@ -2897,14 +2905,14 @@
         <v>57</v>
       </c>
       <c r="D56" t="str">
-        <f>H5</f>
+        <f t="shared" si="10"/>
         <v>Regeneration</v>
       </c>
       <c r="P56" t="s">
         <v>57</v>
       </c>
       <c r="R56" t="str">
-        <f>V5</f>
+        <f t="shared" si="11"/>
         <v>Buffer</v>
       </c>
     </row>
@@ -2913,14 +2921,14 @@
         <v>58</v>
       </c>
       <c r="D57" t="str">
-        <f>H6</f>
+        <f t="shared" si="10"/>
         <v>Regeneration</v>
       </c>
       <c r="P57" t="s">
         <v>58</v>
       </c>
       <c r="R57" t="str">
-        <f>V6</f>
+        <f t="shared" si="11"/>
         <v>Buffer</v>
       </c>
     </row>
@@ -2929,14 +2937,14 @@
         <v>59</v>
       </c>
       <c r="D58" t="str">
-        <f>H7</f>
+        <f t="shared" si="10"/>
         <v>Regeneration</v>
       </c>
       <c r="P58" t="s">
         <v>59</v>
       </c>
       <c r="R58" t="str">
-        <f>V7</f>
+        <f t="shared" si="11"/>
         <v>Buffer</v>
       </c>
     </row>
@@ -2945,14 +2953,14 @@
         <v>60</v>
       </c>
       <c r="D59" t="str">
-        <f>H8</f>
+        <f t="shared" si="10"/>
         <v>Regeneration</v>
       </c>
       <c r="P59" t="s">
         <v>60</v>
       </c>
       <c r="R59" t="str">
-        <f>V8</f>
+        <f t="shared" si="11"/>
         <v>Buffer</v>
       </c>
     </row>
@@ -2961,14 +2969,14 @@
         <v>61</v>
       </c>
       <c r="D60" t="str">
-        <f>H9</f>
+        <f t="shared" si="10"/>
         <v>Regeneration</v>
       </c>
       <c r="P60" t="s">
         <v>61</v>
       </c>
       <c r="R60" t="str">
-        <f>V9</f>
+        <f t="shared" si="11"/>
         <v>Buffer</v>
       </c>
     </row>
@@ -2977,14 +2985,14 @@
         <v>62</v>
       </c>
       <c r="D61" t="str">
-        <f>H10</f>
+        <f t="shared" si="10"/>
         <v>Regeneration</v>
       </c>
       <c r="P61" t="s">
         <v>62</v>
       </c>
       <c r="R61" t="str">
-        <f>V10</f>
+        <f t="shared" si="11"/>
         <v>Buffer</v>
       </c>
     </row>
@@ -2993,14 +3001,14 @@
         <v>63</v>
       </c>
       <c r="D62" t="str">
-        <f>H11</f>
+        <f t="shared" si="10"/>
         <v>Regeneration</v>
       </c>
       <c r="P62" t="s">
         <v>63</v>
       </c>
       <c r="R62" t="str">
-        <f>V11</f>
+        <f t="shared" si="11"/>
         <v>Buffer</v>
       </c>
     </row>
@@ -3009,14 +3017,14 @@
         <v>64</v>
       </c>
       <c r="D63" t="str">
-        <f>I4</f>
+        <f t="shared" ref="D63:D70" si="12">I4</f>
         <v>Neutralization</v>
       </c>
       <c r="P63" t="s">
         <v>64</v>
       </c>
       <c r="R63" t="str">
-        <f>W4</f>
+        <f t="shared" ref="R63:R70" si="13">W4</f>
         <v>Sample</v>
       </c>
       <c r="S63" t="s">
@@ -3037,14 +3045,14 @@
         <v>65</v>
       </c>
       <c r="D64" t="str">
-        <f>I5</f>
+        <f t="shared" si="12"/>
         <v>Neutralization</v>
       </c>
       <c r="P64" t="s">
         <v>65</v>
       </c>
       <c r="R64" t="str">
-        <f>W5</f>
+        <f t="shared" si="13"/>
         <v>Sample</v>
       </c>
       <c r="S64" t="s">
@@ -3065,14 +3073,14 @@
         <v>66</v>
       </c>
       <c r="D65" t="str">
-        <f>I6</f>
+        <f t="shared" si="12"/>
         <v>Neutralization</v>
       </c>
       <c r="P65" t="s">
         <v>66</v>
       </c>
       <c r="R65" t="str">
-        <f>W6</f>
+        <f t="shared" si="13"/>
         <v>Buffer</v>
       </c>
     </row>
@@ -3081,14 +3089,14 @@
         <v>67</v>
       </c>
       <c r="D66" t="str">
-        <f>I7</f>
+        <f t="shared" si="12"/>
         <v>Neutralization</v>
       </c>
       <c r="P66" t="s">
         <v>67</v>
       </c>
       <c r="R66" t="str">
-        <f>W7</f>
+        <f t="shared" si="13"/>
         <v>Buffer</v>
       </c>
     </row>
@@ -3097,14 +3105,14 @@
         <v>68</v>
       </c>
       <c r="D67" t="str">
-        <f>I8</f>
+        <f t="shared" si="12"/>
         <v>Neutralization</v>
       </c>
       <c r="P67" t="s">
         <v>68</v>
       </c>
       <c r="R67" t="str">
-        <f>W8</f>
+        <f t="shared" si="13"/>
         <v>Buffer</v>
       </c>
     </row>
@@ -3113,14 +3121,14 @@
         <v>69</v>
       </c>
       <c r="D68" t="str">
-        <f>I9</f>
+        <f t="shared" si="12"/>
         <v>Neutralization</v>
       </c>
       <c r="P68" t="s">
         <v>69</v>
       </c>
       <c r="R68" t="str">
-        <f>W9</f>
+        <f t="shared" si="13"/>
         <v>Buffer</v>
       </c>
     </row>
@@ -3129,14 +3137,14 @@
         <v>70</v>
       </c>
       <c r="D69" t="str">
-        <f>I10</f>
+        <f t="shared" si="12"/>
         <v>Neutralization</v>
       </c>
       <c r="P69" t="s">
         <v>70</v>
       </c>
       <c r="R69" t="str">
-        <f>W10</f>
+        <f t="shared" si="13"/>
         <v>Buffer</v>
       </c>
     </row>
@@ -3145,14 +3153,14 @@
         <v>71</v>
       </c>
       <c r="D70" t="str">
-        <f>I11</f>
+        <f t="shared" si="12"/>
         <v>Neutralization</v>
       </c>
       <c r="P70" t="s">
         <v>71</v>
       </c>
       <c r="R70" t="str">
-        <f>W11</f>
+        <f t="shared" si="13"/>
         <v>Sample</v>
       </c>
     </row>
@@ -3164,7 +3172,7 @@
         <v>142</v>
       </c>
       <c r="D71" t="str">
-        <f>J4</f>
+        <f t="shared" ref="D71:D78" si="14">J4</f>
         <v>Sample</v>
       </c>
       <c r="E71" t="s">
@@ -3180,7 +3188,7 @@
         <v>72</v>
       </c>
       <c r="R71" t="str">
-        <f>X4</f>
+        <f t="shared" ref="R71:R78" si="15">X4</f>
         <v>Buffer</v>
       </c>
     </row>
@@ -3192,7 +3200,7 @@
         <v>143</v>
       </c>
       <c r="D72" t="str">
-        <f>J5</f>
+        <f t="shared" si="14"/>
         <v>Sample</v>
       </c>
       <c r="E72" t="s">
@@ -3208,7 +3216,7 @@
         <v>73</v>
       </c>
       <c r="R72" t="str">
-        <f>X5</f>
+        <f t="shared" si="15"/>
         <v>Buffer</v>
       </c>
     </row>
@@ -3220,7 +3228,7 @@
         <v>143</v>
       </c>
       <c r="D73" t="str">
-        <f>J6</f>
+        <f t="shared" si="14"/>
         <v>Sample</v>
       </c>
       <c r="E73" t="s">
@@ -3236,7 +3244,7 @@
         <v>74</v>
       </c>
       <c r="R73" t="str">
-        <f>X6</f>
+        <f t="shared" si="15"/>
         <v>Buffer</v>
       </c>
     </row>
@@ -3248,7 +3256,7 @@
         <v>143</v>
       </c>
       <c r="D74" t="str">
-        <f>J7</f>
+        <f t="shared" si="14"/>
         <v>Sample</v>
       </c>
       <c r="E74" t="s">
@@ -3264,7 +3272,7 @@
         <v>75</v>
       </c>
       <c r="R74" t="str">
-        <f>X7</f>
+        <f t="shared" si="15"/>
         <v>Buffer</v>
       </c>
     </row>
@@ -3276,7 +3284,7 @@
         <v>143</v>
       </c>
       <c r="D75" t="str">
-        <f>J8</f>
+        <f t="shared" si="14"/>
         <v>Sample</v>
       </c>
       <c r="E75" t="s">
@@ -3292,7 +3300,7 @@
         <v>76</v>
       </c>
       <c r="R75" t="str">
-        <f>X8</f>
+        <f t="shared" si="15"/>
         <v>Buffer</v>
       </c>
     </row>
@@ -3304,7 +3312,7 @@
         <v>144</v>
       </c>
       <c r="D76" t="str">
-        <f>J9</f>
+        <f t="shared" si="14"/>
         <v>Sample</v>
       </c>
       <c r="E76" t="s">
@@ -3320,7 +3328,7 @@
         <v>77</v>
       </c>
       <c r="R76" t="str">
-        <f>X9</f>
+        <f t="shared" si="15"/>
         <v>Buffer</v>
       </c>
     </row>
@@ -3332,7 +3340,7 @@
         <v>144</v>
       </c>
       <c r="D77" t="str">
-        <f>J10</f>
+        <f t="shared" si="14"/>
         <v>Sample</v>
       </c>
       <c r="E77" t="s">
@@ -3348,7 +3356,7 @@
         <v>78</v>
       </c>
       <c r="R77" t="str">
-        <f>X10</f>
+        <f t="shared" si="15"/>
         <v>Buffer</v>
       </c>
     </row>
@@ -3357,14 +3365,14 @@
         <v>79</v>
       </c>
       <c r="D78" t="str">
-        <f>J11</f>
+        <f t="shared" si="14"/>
         <v>Sample</v>
       </c>
       <c r="P78" t="s">
         <v>79</v>
       </c>
       <c r="R78" t="str">
-        <f>X11</f>
+        <f t="shared" si="15"/>
         <v>Buffer</v>
       </c>
     </row>
@@ -3373,14 +3381,14 @@
         <v>80</v>
       </c>
       <c r="D79" t="str">
-        <f>K4</f>
+        <f t="shared" ref="D79:D86" si="16">K4</f>
         <v>Buffer</v>
       </c>
       <c r="P79" t="s">
         <v>80</v>
       </c>
       <c r="R79">
-        <f>Y4</f>
+        <f t="shared" ref="R79:R86" si="17">Y4</f>
         <v>0</v>
       </c>
     </row>
@@ -3389,14 +3397,14 @@
         <v>81</v>
       </c>
       <c r="D80" t="str">
-        <f>K5</f>
+        <f t="shared" si="16"/>
         <v>Buffer</v>
       </c>
       <c r="P80" t="s">
         <v>81</v>
       </c>
       <c r="R80">
-        <f>Y5</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -3405,14 +3413,14 @@
         <v>82</v>
       </c>
       <c r="D81" t="str">
-        <f>K6</f>
+        <f t="shared" si="16"/>
         <v>Buffer</v>
       </c>
       <c r="P81" t="s">
         <v>82</v>
       </c>
       <c r="R81">
-        <f>Y6</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -3421,14 +3429,14 @@
         <v>83</v>
       </c>
       <c r="D82" t="str">
-        <f>K7</f>
+        <f t="shared" si="16"/>
         <v>Buffer</v>
       </c>
       <c r="P82" t="s">
         <v>83</v>
       </c>
       <c r="R82">
-        <f>Y7</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -3437,14 +3445,14 @@
         <v>84</v>
       </c>
       <c r="D83" t="str">
-        <f>K8</f>
+        <f t="shared" si="16"/>
         <v>Buffer</v>
       </c>
       <c r="P83" t="s">
         <v>84</v>
       </c>
       <c r="R83">
-        <f>Y8</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -3453,14 +3461,14 @@
         <v>85</v>
       </c>
       <c r="D84" t="str">
-        <f>K9</f>
+        <f t="shared" si="16"/>
         <v>Buffer</v>
       </c>
       <c r="P84" t="s">
         <v>85</v>
       </c>
       <c r="R84">
-        <f>Y9</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -3469,14 +3477,14 @@
         <v>86</v>
       </c>
       <c r="D85" t="str">
-        <f>K10</f>
+        <f t="shared" si="16"/>
         <v>Buffer</v>
       </c>
       <c r="P85" t="s">
         <v>86</v>
       </c>
       <c r="R85">
-        <f>Y10</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -3485,14 +3493,14 @@
         <v>87</v>
       </c>
       <c r="D86" t="str">
-        <f>K11</f>
+        <f t="shared" si="16"/>
         <v>Buffer</v>
       </c>
       <c r="P86" t="s">
         <v>87</v>
       </c>
       <c r="R86">
-        <f>Y11</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -3504,7 +3512,7 @@
         <v>144</v>
       </c>
       <c r="D87" t="str">
-        <f>L4</f>
+        <f t="shared" ref="D87:D94" si="18">L4</f>
         <v>Sample</v>
       </c>
       <c r="E87" t="s">
@@ -3520,7 +3528,7 @@
         <v>88</v>
       </c>
       <c r="R87">
-        <f>Z4</f>
+        <f t="shared" ref="R87:R94" si="19">Z4</f>
         <v>0</v>
       </c>
     </row>
@@ -3532,7 +3540,7 @@
         <v>144</v>
       </c>
       <c r="D88" t="str">
-        <f>L5</f>
+        <f t="shared" si="18"/>
         <v>Sample</v>
       </c>
       <c r="E88" t="s">
@@ -3548,7 +3556,7 @@
         <v>89</v>
       </c>
       <c r="R88">
-        <f>Z5</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -3560,7 +3568,7 @@
         <v>146</v>
       </c>
       <c r="D89" t="str">
-        <f>L6</f>
+        <f t="shared" si="18"/>
         <v>Sample</v>
       </c>
       <c r="E89" t="s">
@@ -3576,7 +3584,7 @@
         <v>90</v>
       </c>
       <c r="R89">
-        <f>Z6</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -3588,7 +3596,7 @@
         <v>146</v>
       </c>
       <c r="D90" t="str">
-        <f>L7</f>
+        <f t="shared" si="18"/>
         <v>Sample</v>
       </c>
       <c r="E90" t="s">
@@ -3604,7 +3612,7 @@
         <v>91</v>
       </c>
       <c r="R90">
-        <f>Z7</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -3616,7 +3624,7 @@
         <v>146</v>
       </c>
       <c r="D91" t="str">
-        <f>L8</f>
+        <f t="shared" si="18"/>
         <v>Sample</v>
       </c>
       <c r="E91" t="s">
@@ -3632,7 +3640,7 @@
         <v>92</v>
       </c>
       <c r="R91">
-        <f>Z8</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -3644,7 +3652,7 @@
         <v>146</v>
       </c>
       <c r="D92" t="str">
-        <f>L9</f>
+        <f t="shared" si="18"/>
         <v>Sample</v>
       </c>
       <c r="E92" t="s">
@@ -3660,7 +3668,7 @@
         <v>93</v>
       </c>
       <c r="R92">
-        <f>Z9</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -3672,7 +3680,7 @@
         <v>147</v>
       </c>
       <c r="D93" t="str">
-        <f>L10</f>
+        <f t="shared" si="18"/>
         <v>Sample</v>
       </c>
       <c r="E93" t="s">
@@ -3688,7 +3696,7 @@
         <v>94</v>
       </c>
       <c r="R93">
-        <f>Z10</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -3697,14 +3705,14 @@
         <v>95</v>
       </c>
       <c r="D94" t="str">
-        <f>L11</f>
+        <f t="shared" si="18"/>
         <v>Sample</v>
       </c>
       <c r="P94" t="s">
         <v>95</v>
       </c>
       <c r="R94">
-        <f>Z11</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -3713,14 +3721,14 @@
         <v>96</v>
       </c>
       <c r="D95" t="str">
-        <f>M4</f>
+        <f t="shared" ref="D95:D102" si="20">M4</f>
         <v>Buffer</v>
       </c>
       <c r="P95" t="s">
         <v>96</v>
       </c>
       <c r="R95">
-        <f>AA4</f>
+        <f t="shared" ref="R95:R102" si="21">AA4</f>
         <v>0</v>
       </c>
     </row>
@@ -3729,14 +3737,14 @@
         <v>97</v>
       </c>
       <c r="D96" t="str">
-        <f>M5</f>
+        <f t="shared" si="20"/>
         <v>Buffer</v>
       </c>
       <c r="P96" t="s">
         <v>97</v>
       </c>
       <c r="R96">
-        <f>AA5</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -3745,14 +3753,14 @@
         <v>98</v>
       </c>
       <c r="D97" t="str">
-        <f>M6</f>
+        <f t="shared" si="20"/>
         <v>Buffer</v>
       </c>
       <c r="P97" t="s">
         <v>98</v>
       </c>
       <c r="R97">
-        <f>AA6</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -3761,14 +3769,14 @@
         <v>99</v>
       </c>
       <c r="D98" t="str">
-        <f>M7</f>
+        <f t="shared" si="20"/>
         <v>Buffer</v>
       </c>
       <c r="P98" t="s">
         <v>99</v>
       </c>
       <c r="R98">
-        <f>AA7</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -3777,14 +3785,14 @@
         <v>100</v>
       </c>
       <c r="D99" t="str">
-        <f>M8</f>
+        <f t="shared" si="20"/>
         <v>Buffer</v>
       </c>
       <c r="P99" t="s">
         <v>100</v>
       </c>
       <c r="R99">
-        <f>AA8</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -3793,14 +3801,14 @@
         <v>101</v>
       </c>
       <c r="D100" t="str">
-        <f>M9</f>
+        <f t="shared" si="20"/>
         <v>Buffer</v>
       </c>
       <c r="P100" t="s">
         <v>101</v>
       </c>
       <c r="R100">
-        <f>AA9</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -3809,14 +3817,14 @@
         <v>102</v>
       </c>
       <c r="D101" t="str">
-        <f>M10</f>
+        <f t="shared" si="20"/>
         <v>Buffer</v>
       </c>
       <c r="P101" t="s">
         <v>102</v>
       </c>
       <c r="R101">
-        <f>AA10</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -3825,14 +3833,14 @@
         <v>103</v>
       </c>
       <c r="D102" t="str">
-        <f>M11</f>
+        <f t="shared" si="20"/>
         <v>Buffer</v>
       </c>
       <c r="P102" t="s">
         <v>103</v>
       </c>
       <c r="R102">
-        <f>AA11</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -3844,7 +3852,7 @@
         <v>147</v>
       </c>
       <c r="D103" t="str">
-        <f>N4</f>
+        <f t="shared" ref="D103:D110" si="22">N4</f>
         <v>Sample</v>
       </c>
       <c r="E103" t="s">
@@ -3860,7 +3868,7 @@
         <v>104</v>
       </c>
       <c r="R103">
-        <f>AB4</f>
+        <f t="shared" ref="R103:R110" si="23">AB4</f>
         <v>0</v>
       </c>
     </row>
@@ -3872,7 +3880,7 @@
         <v>147</v>
       </c>
       <c r="D104" t="str">
-        <f>N5</f>
+        <f t="shared" si="22"/>
         <v>Sample</v>
       </c>
       <c r="E104" t="s">
@@ -3888,7 +3896,7 @@
         <v>105</v>
       </c>
       <c r="R104">
-        <f>AB5</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -3900,7 +3908,7 @@
         <v>147</v>
       </c>
       <c r="D105" t="str">
-        <f>N6</f>
+        <f t="shared" si="22"/>
         <v>Sample</v>
       </c>
       <c r="E105" t="s">
@@ -3916,7 +3924,7 @@
         <v>106</v>
       </c>
       <c r="R105">
-        <f>AB6</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -3928,7 +3936,7 @@
         <v>149</v>
       </c>
       <c r="D106" t="str">
-        <f>N7</f>
+        <f t="shared" si="22"/>
         <v>Sample</v>
       </c>
       <c r="E106" t="s">
@@ -3944,7 +3952,7 @@
         <v>107</v>
       </c>
       <c r="R106">
-        <f>AB7</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -3956,7 +3964,7 @@
         <v>149</v>
       </c>
       <c r="D107" t="str">
-        <f>N8</f>
+        <f t="shared" si="22"/>
         <v>Sample</v>
       </c>
       <c r="E107" t="s">
@@ -3972,7 +3980,7 @@
         <v>108</v>
       </c>
       <c r="R107">
-        <f>AB8</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -3984,7 +3992,7 @@
         <v>149</v>
       </c>
       <c r="D108" t="str">
-        <f>N9</f>
+        <f t="shared" si="22"/>
         <v>Sample</v>
       </c>
       <c r="E108" t="s">
@@ -4000,7 +4008,7 @@
         <v>109</v>
       </c>
       <c r="R108">
-        <f>AB9</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4012,7 +4020,7 @@
         <v>149</v>
       </c>
       <c r="D109" t="str">
-        <f>N10</f>
+        <f t="shared" si="22"/>
         <v>Sample</v>
       </c>
       <c r="E109" t="s">
@@ -4028,7 +4036,7 @@
         <v>110</v>
       </c>
       <c r="R109">
-        <f>AB10</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4037,14 +4045,14 @@
         <v>111</v>
       </c>
       <c r="D110" t="str">
-        <f>N11</f>
+        <f t="shared" si="22"/>
         <v>Sample</v>
       </c>
       <c r="P110" t="s">
         <v>111</v>
       </c>
       <c r="R110">
-        <f>AB11</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -4056,10 +4064,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F67082-5A32-4A48-9E06-84C4D2264457}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
